--- a/data/trans_dic/P12_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.283200609074953</v>
+        <v>0.2801921814286502</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2463405059529495</v>
+        <v>0.2456519740790003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.254655668382763</v>
+        <v>0.2580533048087418</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2400091114249023</v>
+        <v>0.2442637556213617</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3900362028062799</v>
+        <v>0.3895025228079679</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3306140216181604</v>
+        <v>0.3302215790464495</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3491080955194944</v>
+        <v>0.3505186321624776</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3250325405079184</v>
+        <v>0.3250786045616623</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3480667035850988</v>
+        <v>0.3477344224477401</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3013313602741469</v>
+        <v>0.3013562410912173</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3181512359915049</v>
+        <v>0.3146136923241623</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2960037097532645</v>
+        <v>0.2986191142595173</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3408086666047854</v>
+        <v>0.3369632315507483</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3054005646239272</v>
+        <v>0.3034944771216184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3205055861856985</v>
+        <v>0.3240620137200647</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3124174148616606</v>
+        <v>0.314031299532058</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4451813047089913</v>
+        <v>0.4448392077307436</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3845066540044469</v>
+        <v>0.3844519739175121</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4121944503659037</v>
+        <v>0.4153158572460132</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3756388669930262</v>
+        <v>0.377211381054637</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3876144148301804</v>
+        <v>0.3869984587160692</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3417058988434918</v>
+        <v>0.341161034609893</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3641491113512776</v>
+        <v>0.3620860184502661</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3389652187647624</v>
+        <v>0.3391731683982237</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1244817406769111</v>
+        <v>0.1224497585023185</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1153475295175103</v>
+        <v>0.117667023009263</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1037140002020021</v>
+        <v>0.1032412626496964</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1273972539369727</v>
+        <v>0.1271204159537364</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1934324419489183</v>
+        <v>0.1931983612149998</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1786457630720318</v>
+        <v>0.1784972437127851</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1483290184650189</v>
+        <v>0.1486773538202736</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1901713537644068</v>
+        <v>0.1880971774050868</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1621662074942272</v>
+        <v>0.1614464034202418</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1517747049747774</v>
+        <v>0.1522377541839069</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1305480513743769</v>
+        <v>0.1312658315391249</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1620509997125607</v>
+        <v>0.1623229790939159</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1593696862283265</v>
+        <v>0.1556427457542736</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1499046118630268</v>
+        <v>0.1480481480265122</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1336684784005601</v>
+        <v>0.1341149096773009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1582060064832067</v>
+        <v>0.1576811517153465</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2350864998171679</v>
+        <v>0.2349298066124542</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2198066394517425</v>
+        <v>0.2199838373308886</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.181642313716843</v>
+        <v>0.1832519269820296</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2202644568331576</v>
+        <v>0.2195572017560219</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1881416895619859</v>
+        <v>0.1886638134838114</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1765793613462863</v>
+        <v>0.1756975471247212</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1532649334625283</v>
+        <v>0.1535159472577886</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1849490391606736</v>
+        <v>0.183940819177418</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1257163267515449</v>
+        <v>0.1250272457852567</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1028469944499981</v>
+        <v>0.1024192920071309</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09035788494133598</v>
+        <v>0.09269399149211552</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1381630875621427</v>
+        <v>0.1351945807190376</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2042265923820379</v>
+        <v>0.2076613033209903</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1362051982685231</v>
+        <v>0.132751146455257</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1163322921568223</v>
+        <v>0.1167446090909436</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1725100942427014</v>
+        <v>0.1728977682200555</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1693358395357195</v>
+        <v>0.1712322114114848</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.128672214493158</v>
+        <v>0.1282438928805656</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1113894797682575</v>
+        <v>0.1114653137303332</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1636968581067914</v>
+        <v>0.1628496862374929</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1845440879077573</v>
+        <v>0.1869514221212351</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.173895229478509</v>
+        <v>0.1745285319157133</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1470681958017781</v>
+        <v>0.146933665323873</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1975192846947174</v>
+        <v>0.1930889081195349</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2871845786927489</v>
+        <v>0.2917988760644353</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2095018654983563</v>
+        <v>0.208196454024297</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1804331500866619</v>
+        <v>0.1802846550299297</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2291435830667661</v>
+        <v>0.2294375596408409</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2228116753344564</v>
+        <v>0.2209815579602762</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1787922469184392</v>
+        <v>0.1785194846289903</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1517649023122903</v>
+        <v>0.1525768252794522</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.201995870430433</v>
+        <v>0.2027141733082453</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1902994257331658</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2029795175350156</v>
+        <v>0.2029795175350157</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1816660693315169</v>
+        <v>0.1821493220698914</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1589629112153881</v>
+        <v>0.1601265333576502</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1433659579478309</v>
+        <v>0.1437749321594343</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1559687286371334</v>
+        <v>0.156280527795137</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2812170173402015</v>
+        <v>0.2819448323821211</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.239857686047963</v>
+        <v>0.2405604286024253</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.208940576604852</v>
+        <v>0.2090618854744382</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2250714609170994</v>
+        <v>0.2235578572828982</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2362371159783664</v>
+        <v>0.23715179082099</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2047688807963774</v>
+        <v>0.2050671333369358</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1809570287537614</v>
+        <v>0.18109539412565</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1945045838298599</v>
+        <v>0.193264989238851</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2098397559571636</v>
+        <v>0.2100476410255603</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1869209984566212</v>
+        <v>0.1884589071486938</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1694243228675917</v>
+        <v>0.1688856736928753</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.18337374702679</v>
+        <v>0.1823321196714473</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3122100771467919</v>
+        <v>0.3134782816460671</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2689985932290279</v>
+        <v>0.2712957512821095</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2369412169039617</v>
+        <v>0.2378600697447355</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2487669222276817</v>
+        <v>0.247544743349668</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2577220078275377</v>
+        <v>0.2579744135368318</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2249701815013141</v>
+        <v>0.2239889371842013</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1996523539005701</v>
+        <v>0.2001058539170655</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2111701338699561</v>
+        <v>0.2118960155043974</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>292185</v>
+        <v>289081</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>239856</v>
+        <v>239186</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>191847</v>
+        <v>194407</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>138615</v>
+        <v>141073</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>512942</v>
+        <v>512240</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>441980</v>
+        <v>441455</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>346505</v>
+        <v>347905</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>266831</v>
+        <v>266868</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>816855</v>
+        <v>816075</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>696233</v>
+        <v>696291</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>555462</v>
+        <v>549285</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>413954</v>
+        <v>417612</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>351620</v>
+        <v>347653</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>297362</v>
+        <v>295506</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>241456</v>
+        <v>244135</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>180434</v>
+        <v>181366</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>585464</v>
+        <v>585014</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>514026</v>
+        <v>513953</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>409121</v>
+        <v>412219</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>308375</v>
+        <v>309666</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>909667</v>
+        <v>908222</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>789520</v>
+        <v>788261</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>635769</v>
+        <v>632167</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>474035</v>
+        <v>474326</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>210799</v>
+        <v>207358</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>226407</v>
+        <v>230960</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>215026</v>
+        <v>214046</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>284168</v>
+        <v>283550</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>307107</v>
+        <v>306736</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>313141</v>
+        <v>312880</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>294472</v>
+        <v>295164</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>412740</v>
+        <v>408238</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>532081</v>
+        <v>529720</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>563947</v>
+        <v>565667</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>529833</v>
+        <v>532746</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>713174</v>
+        <v>714371</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>269879</v>
+        <v>263567</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>294237</v>
+        <v>290593</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>277130</v>
+        <v>278055</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>352889</v>
+        <v>351718</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>373240</v>
+        <v>372992</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>385290</v>
+        <v>385600</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>360608</v>
+        <v>363804</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>478053</v>
+        <v>476518</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>617309</v>
+        <v>619022</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>656113</v>
+        <v>652836</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>622030</v>
+        <v>623049</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>813947</v>
+        <v>809510</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>69321</v>
+        <v>68941</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>49392</v>
+        <v>49186</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>49415</v>
+        <v>50693</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>98315</v>
+        <v>96203</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>97296</v>
+        <v>98932</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>62323</v>
+        <v>60743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>63758</v>
+        <v>63984</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>126515</v>
+        <v>126800</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>174047</v>
+        <v>175996</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>120670</v>
+        <v>120269</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>121967</v>
+        <v>122050</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>236537</v>
+        <v>235312</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>101759</v>
+        <v>103087</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>83512</v>
+        <v>83816</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>80430</v>
+        <v>80356</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>140552</v>
+        <v>137400</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>136818</v>
+        <v>139016</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>95861</v>
+        <v>95264</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>98890</v>
+        <v>98809</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>168049</v>
+        <v>168265</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>229010</v>
+        <v>227129</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>167673</v>
+        <v>167418</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>166176</v>
+        <v>167065</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>291877</v>
+        <v>292915</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>595237</v>
+        <v>596820</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>543136</v>
+        <v>547112</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>483646</v>
+        <v>485026</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>548962</v>
+        <v>550060</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>950288</v>
+        <v>952747</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>850840</v>
+        <v>853333</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>736699</v>
+        <v>737127</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>838318</v>
+        <v>832680</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1572333</v>
+        <v>1578421</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1426014</v>
+        <v>1428091</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1248493</v>
+        <v>1249447</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1409063</v>
+        <v>1400083</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>687549</v>
+        <v>688230</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>638662</v>
+        <v>643917</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>571554</v>
+        <v>569737</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>645420</v>
+        <v>641753</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1055019</v>
+        <v>1059305</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>954211</v>
+        <v>962359</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>835426</v>
+        <v>838666</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>926575</v>
+        <v>922023</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1715331</v>
+        <v>1717011</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1566696</v>
+        <v>1559863</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1377479</v>
+        <v>1380608</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1529794</v>
+        <v>1535053</v>
       </c>
     </row>
     <row r="20">
